--- a/data/evaluation/evaluation_HaSharon_Summer_Zucchini.xlsx
+++ b/data/evaluation/evaluation_HaSharon_Summer_Zucchini.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.9681865264365</v>
+        <v>391.7965644286269</v>
       </c>
       <c r="C4" t="n">
-        <v>820486.7999368346</v>
+        <v>833240.8902240949</v>
       </c>
       <c r="D4" t="n">
-        <v>905.8072642327586</v>
+        <v>912.8202945947767</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04463246311709268</v>
+        <v>-0.06087079474244517</v>
       </c>
     </row>
     <row r="5">
